--- a/data/Listado de proyectos digitales BRC.xlsx
+++ b/data/Listado de proyectos digitales BRC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos digitales" sheetId="1" state="visible" r:id="rId2"/>
@@ -1057,7 +1057,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1090,6 +1090,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1134,7 +1140,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1159,6 +1165,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,7 +1192,7 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4325,19 +4339,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="6" t="s">
         <v>338</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -4345,41 +4360,65 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
@@ -4395,6 +4434,9 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>

--- a/data/Listado de proyectos digitales BRC.xlsx
+++ b/data/Listado de proyectos digitales BRC.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos digitales" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="creadores" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="tipo de proyecto" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="relaciones" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="puntos" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="461">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -54,6 +56,9 @@
     <t xml:space="preserve">archivo</t>
   </si>
   <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Programa Imagen Regional</t>
   </si>
   <si>
@@ -75,6 +80,9 @@
     <t xml:space="preserve">Exposiciones de arte; Museos de arte; Arte regional; Creación artística; Objetos de arte; Arte múltiple; Filosofía del arte</t>
   </si>
   <si>
+    <t xml:space="preserve">P2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historia natural y política</t>
   </si>
   <si>
@@ -93,6 +101,9 @@
     <t xml:space="preserve">Banco de la República; Botánica; Botánica indígena; Descripciones y viajes; Expediciones botánicas; Exploraciones; Historia natural; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alejandro de Humboldt: viajes por Colombia</t>
   </si>
   <si>
@@ -102,6 +113,9 @@
     <t xml:space="preserve">América equinoccial; Banco de la República; Biología; Botánica; Científicos; Descripciones y viajes; Expediciones científicas; Proyectos digitales; Viajeros</t>
   </si>
   <si>
+    <t xml:space="preserve">P4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alberto Lleras Camargo: un estadista para la Colombia del siglo XX</t>
   </si>
   <si>
@@ -117,6 +131,9 @@
     <t xml:space="preserve">Escritores colombianos; Banco de la República; Biblioteca Luis Ángel Arango; Biografías; Diplomacia; Estadistas colombianos; Exposiciones; OEA; Periodiistas colombianos; Política y gobierno; Políticos colombianos; Proyectos digitales; Siglo XX</t>
   </si>
   <si>
+    <t xml:space="preserve">P5</t>
+  </si>
+  <si>
     <t xml:space="preserve">La imagen del Ferrocarril en la Numismática Colombiana</t>
   </si>
   <si>
@@ -129,6 +146,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Colecciones; Ferrocarril; Hacienda pública; Historia; Numismática; Papel moneda; Política y gobierno; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Talleres de crónicas barriales</t>
   </si>
   <si>
@@ -141,6 +161,9 @@
     <t xml:space="preserve">Antologías; Banco de la República; Barrios; Biblioteca Luis Ángel Arango; Crónicas; Descripciones y viajes; Historia; Literatura; Proyectos digitales; Relatos comunes; Subgerencia Cultural; Talleres; Vida social y costumbres</t>
   </si>
   <si>
+    <t xml:space="preserve">P7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diccionario: una definición</t>
   </si>
   <si>
@@ -150,6 +173,9 @@
     <t xml:space="preserve">Americanismos; Banco de la República; Biblioteca Luis Ángel Arango; Diccionarios; Español; Fuentes; Gramática; Lexicografía; Lingüística; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Galería Histórica</t>
   </si>
   <si>
@@ -159,6 +185,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Cartografía histórica; Descripciones y viajes; Fotografías; Historia; Historia; Proyectos digitales; Subgerencia Cultural; Viajeros</t>
   </si>
   <si>
+    <t xml:space="preserve">P9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Net art Colombia: es feo y no le gusta el cursor</t>
   </si>
   <si>
@@ -171,6 +200,9 @@
     <t xml:space="preserve">Arte contemporáneo; Arte digital; Arte e internet; Arte por computador; Banco de la República; Exposiciones; Internet; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P10</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historia de la Biblioteca Luis Ángel Arango</t>
   </si>
   <si>
@@ -180,6 +212,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; BLAA; Evolución; Historia; Homenajes; Línea de tiempo; Patrimonio cultural; Proyectos digitales; Servicios bibliotecarios; Servicios culturales; Subgerencia Cultural; Testimonios</t>
   </si>
   <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luis Caballero</t>
   </si>
   <si>
@@ -189,6 +224,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Colección de Arte del Banco de la República; Colecciones; Museo de Arte del Banco de la República; Pinores colombianos; Pinturas; Proyectos digitales; Subgerencia Cultural; Trayectoria</t>
   </si>
   <si>
+    <t xml:space="preserve">P12</t>
+  </si>
+  <si>
     <t xml:space="preserve">Candelario Obeso: bogando en un río de letras</t>
   </si>
   <si>
@@ -198,6 +236,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Crítica e interpretación; Exposiciones; Historia y crítica; Literatura; Poesía colombiana; Poetas colombianos; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P13</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andy Warhol, Mr. America</t>
   </si>
   <si>
@@ -210,6 +251,9 @@
     <t xml:space="preserve">Arte pop; Artistas plásticos estadounidenses; Banco de la República; Crítica e interpretación; Exposiciones; Museo de Arte del Banco de la República; Pintura estadounidense; Proyectos digitales; Trabajos pictóricos</t>
   </si>
   <si>
+    <t xml:space="preserve">P14</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Amazonía perdida El viaje fotográfico del legendario botánico Richard Evans Schultes</t>
   </si>
   <si>
@@ -219,6 +263,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Descripciones y viajes; Etnobotánica; Fotografías; Indígenas del Amazonas; Proyectos digitales; Subgerencia Cultural; Trabajos fotográficos; Vida social y costumbres</t>
   </si>
   <si>
+    <t xml:space="preserve">P15</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cartas de la persistencia</t>
   </si>
   <si>
@@ -228,6 +275,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Compilaciones; Conflictos; Exposiciones; Historia; Miedo; Paz; Persistencia; Proyectos digitales; Relatos personales; Subgerencia Cultural; Violencia</t>
   </si>
   <si>
+    <t xml:space="preserve">P16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arte ≠ vida: acciones por artistas de las Américas, 1960-2000</t>
   </si>
   <si>
@@ -237,6 +287,9 @@
     <t xml:space="preserve">Actividades grupales; Arte; Arte moderno; Arte y vida; Banco de la República; Exposiciones; Imágenes; Museo de Arte del Banco de la República; Obras en vivo; Performance; Proyecciones de video; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P17</t>
+  </si>
+  <si>
     <t xml:space="preserve">Habeas Corpus: que tengas un cuerpo para exponer</t>
   </si>
   <si>
@@ -246,6 +299,9 @@
     <t xml:space="preserve">Arte barroco; Arte contemporáneo; Banco de la República; Biblioteca Luis Ángel Arango; Exposiciones; Figura humana en el arte; Historia; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Man Ray</t>
   </si>
   <si>
@@ -255,6 +311,9 @@
     <t xml:space="preserve">Arte de lo fantastico; Autoretratos; Banco de la República; Grandes maestros; Museo de Arte del Banco de la República; Objetos; Óleos; Proyectos digitales; Renacentismo; Retratos; Subgerencia Cultural; Surrealismo</t>
   </si>
   <si>
+    <t xml:space="preserve">P19</t>
+  </si>
+  <si>
     <t xml:space="preserve">La caricatura en Colombia a partir de la independencia</t>
   </si>
   <si>
@@ -264,6 +323,9 @@
     <t xml:space="preserve">Banco de la República; Caricaturas colombianas; Dibujo colombiano; Historia y crítica; Humor político; Humorismo gráfico colombiano; Proyectos digitales; Sátira; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P20</t>
+  </si>
+  <si>
     <t xml:space="preserve">Palabras que nos cambiaron: lenguaje y poder en la independencia</t>
   </si>
   <si>
@@ -276,6 +338,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Bicentenario; Guerra de independencia; Historia; Independencia; Movimientos de independencia; Política y gobierno; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P21</t>
+  </si>
+  <si>
     <t xml:space="preserve">La enciclopedia</t>
   </si>
   <si>
@@ -288,6 +353,9 @@
     <t xml:space="preserve">Arte; Ayuda de tareas; Banco de la República; Ciencias naturales; Comunicación; Economía; Geografía; Historia; Literatura; Música; Política; Proyectos digitales; Reseñas; Subgerencia Cultural; Enciclopedia</t>
   </si>
   <si>
+    <t xml:space="preserve">P22</t>
+  </si>
+  <si>
     <t xml:space="preserve">Óscar Muñoz: Protografías</t>
   </si>
   <si>
@@ -297,6 +365,9 @@
     <t xml:space="preserve">Arte contemporáneo; Banco de la República; Entrevistas; Fotografía colombiana; Fotógrafos colombianos; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural; Técnica mixta; Trabajos artísticos</t>
   </si>
   <si>
+    <t xml:space="preserve">P23</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colección Maraloto - El ojo del coleccionista</t>
   </si>
   <si>
@@ -306,6 +377,9 @@
     <t xml:space="preserve">Arte conceptual; Arte contemporáneo; Banco de la República; Exposiciones temporales; Museo de Arte del Banco de la República; Performance; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P24</t>
+  </si>
+  <si>
     <t xml:space="preserve">El baúl de Amal Abisambra - La migración árabe a Colombia</t>
   </si>
   <si>
@@ -318,6 +392,9 @@
     <t xml:space="preserve">Árabes en Colombia; Asentamientos árabes; Banco de la República; Desplazamiento; Historia; Migrantes; Población extranjera; Proyectos digitales; Relatos personales; Subgerencia Cultural; Vida social y costumbres</t>
   </si>
   <si>
+    <t xml:space="preserve">P25</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exposición Financiación de la Independencia</t>
   </si>
   <si>
@@ -327,6 +404,9 @@
     <t xml:space="preserve">Banco de la República; Colecciones numismáticas; Deuda externa; Exposiciones numismáticas; Financiación; Finanzas publicas; Guerra de Independencia; Hacienda pública; Historia; Política y gobierno; Préstamos externos; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P26</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beuys y más allá El enseñar como arte</t>
   </si>
   <si>
@@ -336,6 +416,9 @@
     <t xml:space="preserve">Artistas plásticos alemanes; Banco de la República; Biblioteca Luis Ángel Arango; Casa Republicana; Crítica e interpretación; Escultura alemana; Exposiciones; Proyectos digitales; Subgerencia Cultural; Trabajos arquitectónicos; Trabajos artísticos</t>
   </si>
   <si>
+    <t xml:space="preserve">P27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Historia de Colombia a través de la fotografía 1842 - 2010</t>
   </si>
   <si>
@@ -345,6 +428,9 @@
     <t xml:space="preserve">Banco de la República; Descripciones y viajes; Fotografía colombiana; Fotografías; Historia; Política y gobierno; Proyectos digitales; Subgerencia Cultural; Vida social y costumbres</t>
   </si>
   <si>
+    <t xml:space="preserve">P28</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dayanita Singh</t>
   </si>
   <si>
@@ -354,6 +440,9 @@
     <t xml:space="preserve">Banco de la República; Exposiciones; Fotografía artística; Fotógrafos hindúes; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural; Trabajos fotográficos</t>
   </si>
   <si>
+    <t xml:space="preserve">P29</t>
+  </si>
+  <si>
     <t xml:space="preserve">León Ferrari</t>
   </si>
   <si>
@@ -363,6 +452,9 @@
     <t xml:space="preserve">Arte contemporáneo; Arte y poder; Banco de la República; Brasil; Caligrafía; Collage; Diarios; Dibujo; Museo de Arte del Banco de la República; Prismas; Proyectos digitales; Retrospectiva; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joan Fontcuberta - A través del espejo</t>
   </si>
   <si>
@@ -372,6 +464,9 @@
     <t xml:space="preserve">Redes sociales; Internet; Fotografía artística; Filosofía de la fotografía; Exposiciones fotográficas; Fotomontaje</t>
   </si>
   <si>
+    <t xml:space="preserve">P31</t>
+  </si>
+  <si>
     <t xml:space="preserve">Por los tubos de Bogotá: usos del agua en la historia de la ciudad</t>
   </si>
   <si>
@@ -381,6 +476,9 @@
     <t xml:space="preserve">Abastecimiento de agua; Banco de la República; Consumo de agua; Historia; Proyectos digitales; Recursos hídricos; Subgerencia Cultural; Utilización del agua</t>
   </si>
   <si>
+    <t xml:space="preserve">P32</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los niños que fuimos: huellas de la infancia en Colombia</t>
   </si>
   <si>
@@ -390,6 +488,9 @@
     <t xml:space="preserve">Arte infantil; Aspectos sociales; Banco de la República; Crianza; Educación; Historia; Niños; Niños en el arte; Proyectos digitales; Rasgos culturales; Religión; Representaciones; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P33</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sophie Calle - Historias de Pared</t>
   </si>
   <si>
@@ -399,6 +500,9 @@
     <t xml:space="preserve">Arte contemporáneo; Banco de la República; Exposiciones; Fotografía de personas; Fotografía francesa; Fotógrafos franceses; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural; Trabajos fotográficos</t>
   </si>
   <si>
+    <t xml:space="preserve">P34</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fonoteca Digital</t>
   </si>
   <si>
@@ -408,6 +512,9 @@
     <t xml:space="preserve">Banco de la República; Centro de Memorias Orales; Colección de la Biblioteca Luis Ángel Arango; Colección literaria HJCK; Colección Voces para el tiempo de la Casa de Poesía Silva; Conservación; Difusión; Fonoteca de entrevistas a personajes de la música de Hispanoamérica; Fonotecas; Grabaciones sonoras; Música; Patrimonio cultural; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P35</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wolfang Tillmans</t>
   </si>
   <si>
@@ -417,6 +524,9 @@
     <t xml:space="preserve">Arte; Banco de la República; Exposiciones; Fotografía alemana; Fotografía artística; Fotógrafos alemanes; Instalación; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural; Trabajos fotográficos</t>
   </si>
   <si>
+    <t xml:space="preserve">P36</t>
+  </si>
+  <si>
     <t xml:space="preserve">Radio Sutatenza</t>
   </si>
   <si>
@@ -426,6 +536,9 @@
     <t xml:space="preserve">Acción Cultural Popular; Archivos sonoros; Banco de la República; Colecciones documentales; Educación a distancia; Escuelas radiofónicas; Iglesia catolica; Proyectos digitales; Radio Sutatenza; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P37</t>
+  </si>
+  <si>
     <t xml:space="preserve">Germán Espinosa Inédito</t>
   </si>
   <si>
@@ -435,6 +548,9 @@
     <t xml:space="preserve">Autores colombianos; Banco de la República; Biblioteca Luis Ángel Arango; Biografías; Colecciones; Crítica e interpretación; Literatura colombiana; Proyectos digitales; Relatos personales; Reseñas; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P38</t>
+  </si>
+  <si>
     <t xml:space="preserve">Agua: un patrimonio que corre de mano en mano</t>
   </si>
   <si>
@@ -444,6 +560,9 @@
     <t xml:space="preserve">Agua; Banco de la República; Cartografía; Conciencia social; Cuencas hidrográficas; Cultura; Exposiciones bibliográficas; Grabados; Hidrografía; Patrimonio; Pinturas; Proyectos digitales; Subgerencia Cultural; Videos</t>
   </si>
   <si>
+    <t xml:space="preserve">P39</t>
+  </si>
+  <si>
     <t xml:space="preserve">Andrés Caicedo: morir y dejar obra</t>
   </si>
   <si>
@@ -453,6 +572,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Biografías; Cine; Colecciones Banco de la República; Conferencias; Correspondencia; Crítica e interpretación; Exposiciones; Homenajes; Literatura; Proyectos digitales; Relatos personales; Reseñas; Subgerencia Cultural; Teatro</t>
   </si>
   <si>
+    <t xml:space="preserve">P40</t>
+  </si>
+  <si>
     <t xml:space="preserve">Afrocolombianidad</t>
   </si>
   <si>
@@ -462,6 +584,9 @@
     <t xml:space="preserve">Arte negro; Folclor negro; Literatura negra; Música negra; Negros en la literatura; Religión de los negros; Derechos de los negros; Antropología; Etnología</t>
   </si>
   <si>
+    <t xml:space="preserve">P41</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vik Muniz. Más acá de la imagen</t>
   </si>
   <si>
@@ -471,6 +596,9 @@
     <t xml:space="preserve">Arte contemporáneo; Artes plásticas; Banco de la República; Cultura; Dibujos; Exposiciones; Fotógrafos latinoamericanos; Museo de Arte del Banco de la República; Pinturas; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P42</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevos nombres. Desequilibrio y movilidad. Versión 2013</t>
   </si>
   <si>
@@ -480,6 +608,9 @@
     <t xml:space="preserve">Arte colombiano; Arte contemporáneo; Artistas plásticos colombianos; Banco de la República; Exposiciones; Museo de Arte del Banco de la República; NN; Nuevos artistas; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P43</t>
+  </si>
+  <si>
     <t xml:space="preserve">Huila en las colecciones del Banco de la República</t>
   </si>
   <si>
@@ -489,6 +620,9 @@
     <t xml:space="preserve">Arqueología; Banco de la República; Colecciones; Geografía física; Literatura; Música; Patrimonio arqueológico; Patrimonio cultural; Pintores; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P44</t>
+  </si>
+  <si>
     <t xml:space="preserve">Urbes mutantes 1941-2012. Fotografía latinoamericana</t>
   </si>
   <si>
@@ -498,6 +632,9 @@
     <t xml:space="preserve">Arte contemporáneo; Banco de la República; Cultura; Exposiciones; Fotógrafos latinoamericanos; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P45</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boletín Cultural y Bibliográfico</t>
   </si>
   <si>
@@ -510,6 +647,9 @@
     <t xml:space="preserve">Revistas culturales; Revistas colombianas; Publicaciones del Banco de la República; Cultura</t>
   </si>
   <si>
+    <t xml:space="preserve">P46</t>
+  </si>
+  <si>
     <t xml:space="preserve">William Kentridge, Fortuna</t>
   </si>
   <si>
@@ -519,6 +659,9 @@
     <t xml:space="preserve">Trabajos artísticos; Exposiciones; Crítica e interpretación; Arte sudafricano; Artistas plásticos sudafricanos; Arte contemporáneo; Proyectos digitales; Banco de la República; Museo de Arte del Banco de la República; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P47</t>
+  </si>
+  <si>
     <t xml:space="preserve">Foto Sady - Recuerdos de la realidad</t>
   </si>
   <si>
@@ -528,6 +671,9 @@
     <t xml:space="preserve">Exposiciones fotográficas; Fotografía colombiana; Fotógrafos colombianos; Historia de Bogotá; Trabajos fotográficos</t>
   </si>
   <si>
+    <t xml:space="preserve">P48</t>
+  </si>
+  <si>
     <t xml:space="preserve">Álvaro Barrios, la leyenda del sueño. Revisión retrospectiva</t>
   </si>
   <si>
@@ -537,6 +683,9 @@
     <t xml:space="preserve">Arte conceptual; Artistas plásticos colombianos; Banco de la República; Dibujantes colombianos; Exposiciones de arte; Grabados; Museo de Arte del Banco de la República; Obras artísticas; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P49</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asamblea Nacional Constituyente y Constitución de 1991</t>
   </si>
   <si>
@@ -546,6 +695,9 @@
     <t xml:space="preserve">Asamblea Nacional Constituyente  de 1991; Banco de la República; Constitución política de 1991; Derechos constitucionales; Legislación y jurisprudencia; Participación ciudadana; Política y gobierno; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Celebrando a Gabriel García Márquez</t>
   </si>
   <si>
@@ -558,6 +710,9 @@
     <t xml:space="preserve">Conmemoración; Escritores colombianos; Nobel de Literatura; Lectura complementaria</t>
   </si>
   <si>
+    <t xml:space="preserve">P51</t>
+  </si>
+  <si>
     <t xml:space="preserve">Víctor Grippo: Transformación</t>
   </si>
   <si>
@@ -567,6 +722,9 @@
     <t xml:space="preserve">Arte conceptual; Arte argentino; Arte y tecnología; Exposiciones; Vanguardismo</t>
   </si>
   <si>
+    <t xml:space="preserve">P52</t>
+  </si>
+  <si>
     <t xml:space="preserve">Museo del Oro Tairona - Casa de la Aduana</t>
   </si>
   <si>
@@ -585,6 +743,9 @@
     <t xml:space="preserve">Museografía; Museos; Museos arqueológicos; Museos históricos; Arquitectura de museos</t>
   </si>
   <si>
+    <t xml:space="preserve">P53</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durero: Grabados 1496-1522</t>
   </si>
   <si>
@@ -594,6 +755,9 @@
     <t xml:space="preserve">Grabado; Grabado renacentista; Grabadores</t>
   </si>
   <si>
+    <t xml:space="preserve">P54</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ricardo Gómez Campuzano</t>
   </si>
   <si>
@@ -603,6 +767,9 @@
     <t xml:space="preserve">Exposiciones artísticas; Pintores colombianos; Coleccionistas y colecciones; Identidad cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P55</t>
+  </si>
+  <si>
     <t xml:space="preserve">Graciela Sacco</t>
   </si>
   <si>
@@ -612,6 +779,9 @@
     <t xml:space="preserve">Arte argentino; Arte contemporáneo; Artistas plásticos argentinos; Banco de la República; Exposiciones; Museo de Arte del Banco de la República; Proyectos digitales; Subgerencia Cultural; Trabajos artísticos</t>
   </si>
   <si>
+    <t xml:space="preserve">P56</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hernán Díaz. Revelado. Retratos, sesiones y hojas de contacto</t>
   </si>
   <si>
@@ -621,6 +791,9 @@
     <t xml:space="preserve">Arte contemporáneo; Banco de la República; Exposiciones; Fotógrafos colombianos; Personajes celebres; Proyectos digitales; Siglo XX; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P57</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Paz Se Toma La Palabra</t>
   </si>
   <si>
@@ -630,6 +803,9 @@
     <t xml:space="preserve">Banco de la República; Biblioteca Luis Ángel Arango; Colecciones; Conflicto interno; Dibulos; Historia; Paz; Política y gobierno; Posconflicto; Proyectos digitales; Relatos personales; Subgerencia Cultural; Talleres</t>
   </si>
   <si>
+    <t xml:space="preserve">P58</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fondos Abiertos</t>
   </si>
   <si>
@@ -639,6 +815,9 @@
     <t xml:space="preserve">Aspectos sociales; Banco de la República; Biblioteca Luis Ángel Arango; Economía; Literatura colombiana; Poesía colombiana; Política y gobierno; Proyectos digitales; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P59</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Lechuga, el tesoro que deslumbró en el Prado regresa a casa</t>
   </si>
   <si>
@@ -648,6 +827,9 @@
     <t xml:space="preserve">Arte Colonial; Arte religioso; Banco de la República; Colección de Arte del Banco de la República; Custodias; Exposiciones; Iglesia de San Ignacio de Bogotá; La lechuga; Metales preciosas; Museo de Arte del Banco de la República; Orfebrería; Piedras preciosas; Piezas litúrgicas; Proyectos digitales</t>
   </si>
   <si>
+    <t xml:space="preserve">P60</t>
+  </si>
+  <si>
     <t xml:space="preserve">Colección de Arte del Banco de la República</t>
   </si>
   <si>
@@ -657,6 +839,9 @@
     <t xml:space="preserve">Artes plásticas; Banco de la República; Biblioteca Luis Ángel Arango; Colección de Arte del Banco de la República; Esculturas; Exposición de arte permanentes; Pinturas; Proyectos digitales; Proyectos especiales; Servicios; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P61</t>
+  </si>
+  <si>
     <t xml:space="preserve">¡Todo el poder para el pueblo! Emory Douglas y las Panteras Negras</t>
   </si>
   <si>
@@ -666,6 +851,9 @@
     <t xml:space="preserve">Luchas sociales; Propaganda política; Arte disidente; Arte e historia; Arte y revoluciones; Arte negro</t>
   </si>
   <si>
+    <t xml:space="preserve">P62</t>
+  </si>
+  <si>
     <t xml:space="preserve">Johanna Calle: Silentes 1985-2015</t>
   </si>
   <si>
@@ -675,6 +863,9 @@
     <t xml:space="preserve">Dibujo; Estética; Artes de representación; Arte conceptual</t>
   </si>
   <si>
+    <t xml:space="preserve">P63</t>
+  </si>
+  <si>
     <t xml:space="preserve">Museo etnográfico del Banco de la República</t>
   </si>
   <si>
@@ -684,6 +875,9 @@
     <t xml:space="preserve">Museografía; Museos; Museos arqueológicos; Museos históricos; Arquitectura de museos; Museos antropológicos</t>
   </si>
   <si>
+    <t xml:space="preserve">P64</t>
+  </si>
+  <si>
     <t xml:space="preserve">Muerte Barroca</t>
   </si>
   <si>
@@ -693,6 +887,9 @@
     <t xml:space="preserve">Arte colonial; Arte cristiano; Banco de la República; Colección de Arte del Banco de la República; Exposiciones; Monjas; Muerte; Museo de Arte del Banco de la República; Órdenes religiosas de mujeres; Proyectos digitales; Retratos; Siglo XIX; Subgerencia Cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aparente ingenuidad - Rompecabezas</t>
   </si>
   <si>
@@ -705,6 +902,9 @@
     <t xml:space="preserve">Amperente ingenuidad; Arte primitivista; Banco de la República; Colección de Arte del Banco de la República; Exposiciones; Juegos; Museo de Arte del Banco de la República; Naïf (ingenuo); Pintores primitivistas; Pinturas; Rompecabezas; Siglo XIX; Siglo XX; Subgerencia Cultural; Aplicaciones</t>
   </si>
   <si>
+    <t xml:space="preserve">P66</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aparente ingenuidad - ¿Dónde estás Jaguar?</t>
   </si>
   <si>
@@ -714,6 +914,9 @@
     <t xml:space="preserve">Amperente ingenuidad; Arte primitivista; Banco de la República; Colección de Arte del Banco de la República; Exposiciones; Juegos; Museo de Arte del Banco de la República; Naïf (ingenuo); Pintores primitivistas; Pinturas; Busquedas; Siglo XIX; Siglo XX; Subgerencia Cultural; Aplicaciones</t>
   </si>
   <si>
+    <t xml:space="preserve">P67</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imágenes y relatos de un viaje por Colombia</t>
   </si>
   <si>
@@ -723,6 +926,9 @@
     <t xml:space="preserve">Banco de la República; Ciudades y pueblos; Descripciones y viajes; Fauna; Fiestas y costumbres; Flora; Gente; Geografía; Medios y modos de viaje; Proyectos digitales; Reseñas; Subgerencia Cultural; Trabajo y técnica; Vestigios Arqueológicos; Vías de comunicación; Vida social y costumbres</t>
   </si>
   <si>
+    <t xml:space="preserve">P68</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salto de Tequendama y su historia</t>
   </si>
   <si>
@@ -735,6 +941,9 @@
     <t xml:space="preserve">Salto de tequendama; Ecología; Recurso Hidrológico</t>
   </si>
   <si>
+    <t xml:space="preserve">P69</t>
+  </si>
+  <si>
     <t xml:space="preserve">Joan Fontcuberta: pareidolia</t>
   </si>
   <si>
@@ -744,6 +953,9 @@
     <t xml:space="preserve">Fotografía artística; Exposiciones de fotografía; Artista catalán</t>
   </si>
   <si>
+    <t xml:space="preserve">P70</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luis Roldán: Periplo Una retrospectiva</t>
   </si>
   <si>
@@ -753,6 +965,9 @@
     <t xml:space="preserve">Arte colombiano; Artistas colombianos; Pintura colombiana; Vanguardismo; Modernidad (arte); Pinturas; Exposiciones</t>
   </si>
   <si>
+    <t xml:space="preserve">P71</t>
+  </si>
+  <si>
     <t xml:space="preserve">Museo de oro Nariño</t>
   </si>
   <si>
@@ -762,6 +977,9 @@
     <t xml:space="preserve">Museografía; Museos; Museos arqueológicos; Museos históricos; Museos antropológicos</t>
   </si>
   <si>
+    <t xml:space="preserve">P72</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cancionero escolar</t>
   </si>
   <si>
@@ -771,6 +989,9 @@
     <t xml:space="preserve">Biblioteca Aldeana de Colombia; Canciones infantiles; Música colombiana; Música para canto; Partituras</t>
   </si>
   <si>
+    <t xml:space="preserve">P73</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henri Cartier-Bresson, fotógrafo</t>
   </si>
   <si>
@@ -780,6 +1001,9 @@
     <t xml:space="preserve">Fotografía artística; Reportajes fotográficos; Retratos; Exposición fotográfica; Fotógrafo francés</t>
   </si>
   <si>
+    <t xml:space="preserve">P74</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piel de bahareque</t>
   </si>
   <si>
@@ -792,6 +1016,9 @@
     <t xml:space="preserve">Arquitectura republicana; Diseño arquitectónico; Arquitectura - conservación y restauración; Arquitectura y sociedad; Investigación arquitectónica</t>
   </si>
   <si>
+    <t xml:space="preserve">P75</t>
+  </si>
+  <si>
     <t xml:space="preserve">60 años de la BLAA, liderando una red cultural</t>
   </si>
   <si>
@@ -801,6 +1028,9 @@
     <t xml:space="preserve">Patrimonio documental; Cultura; Lenguaje y cultura; Fondos documentales</t>
   </si>
   <si>
+    <t xml:space="preserve">P76</t>
+  </si>
+  <si>
     <t xml:space="preserve">Y he aquí la luz (Et voici la lumière). Obras contemporáneas - Centre national des arts plastiques</t>
   </si>
   <si>
@@ -810,6 +1040,9 @@
     <t xml:space="preserve">Estética; Fotografía artística; Música en el arte; Objetos de arte; Video artístico; Composición (arte); Filosofía del arte; Museos de arte; Arte conceptual; Arte disidente; Arte y tecnología;</t>
   </si>
   <si>
+    <t xml:space="preserve">P77</t>
+  </si>
+  <si>
     <t xml:space="preserve">Los Carpinteros: la cosa está candela</t>
   </si>
   <si>
@@ -819,6 +1052,9 @@
     <t xml:space="preserve">Arte contemporáneo latinoamericano; Artistas cubanos; Exposiciones de arte; Objetos de arte; Arte conceptual; Filosofía del arte moderno</t>
   </si>
   <si>
+    <t xml:space="preserve">P78</t>
+  </si>
+  <si>
     <t xml:space="preserve">Libretas de dibujos: reencuentros de memoria gráfica</t>
   </si>
   <si>
@@ -831,6 +1067,9 @@
     <t xml:space="preserve">Libros de artistas; Libretas de artistas; Ilustración de libros; Exposición de dibujos; Dibujos</t>
   </si>
   <si>
+    <t xml:space="preserve">P79</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nuevos nombres 2017 - 2018</t>
   </si>
   <si>
@@ -843,6 +1082,9 @@
     <t xml:space="preserve">Intervención artística; Instalación artística; Exposiciones; Museos de arte; Filosofía de la arquitectura; Filosofía del arte</t>
   </si>
   <si>
+    <t xml:space="preserve">P80</t>
+  </si>
+  <si>
     <t xml:space="preserve">Partería, saber ancestral y práctica viva</t>
   </si>
   <si>
@@ -855,6 +1097,9 @@
     <t xml:space="preserve">Parteras; Patrimonio inmaterial; Folclor; Tradición</t>
   </si>
   <si>
+    <t xml:space="preserve">P81</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decir el lugar</t>
   </si>
   <si>
@@ -864,6 +1109,9 @@
     <t xml:space="preserve">Paisajes; Naturaleza en el arte; Pintura de paisajes; Arquitectura del paisaje</t>
   </si>
   <si>
+    <t xml:space="preserve">P82</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molas. Capas de sabiduría</t>
   </si>
   <si>
@@ -876,6 +1124,9 @@
     <t xml:space="preserve">Molas; Grupos étnicos; Gunadule; Textiles; Cosmogonía</t>
   </si>
   <si>
+    <t xml:space="preserve">P83</t>
+  </si>
+  <si>
     <t xml:space="preserve">Formas de la memoria</t>
   </si>
   <si>
@@ -885,6 +1136,9 @@
     <t xml:space="preserve">Exposiciones de arte; Arte contemporáneo; Arte moderno; Arte colombiano; Memoria</t>
   </si>
   <si>
+    <t xml:space="preserve">P84</t>
+  </si>
+  <si>
     <t xml:space="preserve">Decir el lugar. Testimonios del paisaje colombiano</t>
   </si>
   <si>
@@ -894,6 +1148,9 @@
     <t xml:space="preserve">Coleccionistas y colecciones; Arte y cultura; Exposiciones artísticas; Pintura de paisajes</t>
   </si>
   <si>
+    <t xml:space="preserve">P85</t>
+  </si>
+  <si>
     <t xml:space="preserve">¡Luz, más luz! Leo Matiz en las colecciones del Banco de la República</t>
   </si>
   <si>
@@ -903,6 +1160,9 @@
     <t xml:space="preserve">Fotografía artística; Fotografía abstracta; Exposición fotográfica; Reportajes fotográficos; Fotografías; Fotógrafo colombiano; Modernidad artística</t>
   </si>
   <si>
+    <t xml:space="preserve">P86</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLAA 60 años</t>
   </si>
   <si>
@@ -912,6 +1172,9 @@
     <t xml:space="preserve">Cumpleaños; Conmemoración; Bibliotecas; Bibliotecas - Historia; Bibliotecas de investigación; Biblioteca pública; Bibliotecas y comunidad</t>
   </si>
   <si>
+    <t xml:space="preserve">P87</t>
+  </si>
+  <si>
     <t xml:space="preserve">El sueño de la razón</t>
   </si>
   <si>
@@ -921,6 +1184,9 @@
     <t xml:space="preserve">Exposiciones de arte; Filosofía del arte moderno; Museos de arte; Apreciación del arte; Estética; Objetos del arte; Arte conceptual</t>
   </si>
   <si>
+    <t xml:space="preserve">P88</t>
+  </si>
+  <si>
     <t xml:space="preserve">Centro de Memorias Orales</t>
   </si>
   <si>
@@ -930,6 +1196,9 @@
     <t xml:space="preserve">Coleccionistas y colecciones; Memoria oral; Historias de vida; Relatos comunes; Comunidades; Costumbres y vida</t>
   </si>
   <si>
+    <t xml:space="preserve">P89</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zurbarán en el MAMU</t>
   </si>
   <si>
@@ -939,6 +1208,9 @@
     <t xml:space="preserve">Barroco; Arte y religión; Exposiciones artísticas; Museos de arte</t>
   </si>
   <si>
+    <t xml:space="preserve">P90</t>
+  </si>
+  <si>
     <t xml:space="preserve">Evidencias para una nación (BLAA 60 años)</t>
   </si>
   <si>
@@ -948,6 +1220,9 @@
     <t xml:space="preserve">Colecciones documentales; Coleccionistas y colecciones; Desarrollo de colecciones bibliográficas; Identidad cultural</t>
   </si>
   <si>
+    <t xml:space="preserve">P91</t>
+  </si>
+  <si>
     <t xml:space="preserve">Archivo de exposiciones temporales del Museo del Oro</t>
   </si>
   <si>
@@ -960,6 +1235,9 @@
     <t xml:space="preserve">Museos arqueológicos; Patrimonio; Coleccionistas y colecciones; Exposiciones; Antropología</t>
   </si>
   <si>
+    <t xml:space="preserve">P92</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exposiciones permanentes del Museo del Oro</t>
   </si>
   <si>
@@ -969,6 +1247,9 @@
     <t xml:space="preserve">Museos arqueológicos; Patrimonio arqueológico; Coleccionistas y colecciones</t>
   </si>
   <si>
+    <t xml:space="preserve">P93</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exposiciones internacionales del Museo del Oro</t>
   </si>
   <si>
@@ -978,6 +1259,9 @@
     <t xml:space="preserve">Exposiciones artísticas; Patrimonio arqueológico; Museos arqueológicos; Museos de historia natural</t>
   </si>
   <si>
+    <t xml:space="preserve">P94</t>
+  </si>
+  <si>
     <t xml:space="preserve">Campo a través</t>
   </si>
   <si>
@@ -987,6 +1271,9 @@
     <t xml:space="preserve">Coleccionistas y colecciones; Arte y cultura; Exposiciones artísticas</t>
   </si>
   <si>
+    <t xml:space="preserve">P95</t>
+  </si>
+  <si>
     <t xml:space="preserve">Habitación compartida</t>
   </si>
   <si>
@@ -996,6 +1283,9 @@
     <t xml:space="preserve">Exposiciones de arte; Arte colombiano; Colecciones y coleccionistas</t>
   </si>
   <si>
+    <t xml:space="preserve">P96</t>
+  </si>
+  <si>
     <t xml:space="preserve">Delimitar</t>
   </si>
   <si>
@@ -1005,6 +1295,9 @@
     <t xml:space="preserve">Coleccionistas y colecciones; Arte y cultura; Museos de arte</t>
   </si>
   <si>
+    <t xml:space="preserve">P97</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monstruos en papel</t>
   </si>
   <si>
@@ -1014,6 +1307,9 @@
     <t xml:space="preserve">Exposiciones de arte; Arte contemporáneo; Arte moderno; Arte colombiano; Dibujos; Grabados; Acuarelas; Bocetos</t>
   </si>
   <si>
+    <t xml:space="preserve">P98</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Amazonian Travels of Richard Evans Schultes</t>
   </si>
   <si>
@@ -1026,6 +1322,9 @@
     <t xml:space="preserve">Biología; Etnobotánica; Grupos étnicos; Vida en comunidad; Cosmogonía; Indígenas del Amazonas; Mitología indígena; Indígenas; Mapas; Exploradores; Expediciones científicas; Viajes de estudio</t>
   </si>
   <si>
+    <t xml:space="preserve">P99</t>
+  </si>
+  <si>
     <t xml:space="preserve">Documentos y colecciones especiales - Red de Bibliotecas Banco de la República</t>
   </si>
   <si>
@@ -1047,7 +1346,67 @@
     <t xml:space="preserve">pertenece a</t>
   </si>
   <si>
+    <t xml:space="preserve">C1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Banco de la República</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puntos</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1416,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1082,20 +1441,29 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1140,7 +1508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1165,12 +1533,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1190,10 +1566,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1238,2876 +1614,2879 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
+    <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1995</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1996</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>2000</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G14" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G17" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G20" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G21" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G22" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G24" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G25" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G26" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G27" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G28" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G29" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G30" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G31" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G32" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G33" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
-        <v>33</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="83.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="82" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G35" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G36" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
-        <v>36</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G37" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
-        <v>37</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G38" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
-        <v>38</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G39" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
-        <v>39</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
-        <v>41</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G44" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>44</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G45" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>45</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="G46" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>46</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G47" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G48" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
-        <v>48</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G49" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
-        <v>49</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G50" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
-        <v>50</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G51" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
-        <v>51</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G52" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>52</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G53" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
-        <v>53</v>
+      <c r="A54" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G54" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G55" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G56" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
-        <v>56</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G57" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
-        <v>57</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>199</v>
+        <v>256</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G58" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
-        <v>58</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G59" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G60" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
-        <v>60</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>208</v>
+        <v>268</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
-        <v>61</v>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G62" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
-        <v>62</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G63" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
-        <v>63</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G64" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
-        <v>64</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
-        <v>65</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G66" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
-        <v>66</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="62.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
-        <v>67</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="62" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>230</v>
+        <v>297</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G68" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
-        <v>68</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>300</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G69" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G70" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
-        <v>70</v>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G71" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
-        <v>71</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>243</v>
+        <v>314</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="G72" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
-        <v>72</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>246</v>
+        <v>318</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G73" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>247</v>
+        <v>319</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
-        <v>73</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>321</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G74" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="n">
-        <v>74</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="G75" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="n">
-        <v>75</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>256</v>
+        <v>331</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="G76" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>257</v>
+        <v>332</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1" t="n">
-        <v>76</v>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>334</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G77" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>77</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G78" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>78</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>265</v>
+        <v>343</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>266</v>
+        <v>344</v>
       </c>
       <c r="G79" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>79</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>269</v>
+        <v>348</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G80" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>272</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>80</v>
+      <c r="A81" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="G81" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>81</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>277</v>
+        <v>358</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G82" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>278</v>
+        <v>359</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>82</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="G83" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>83</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>284</v>
+        <v>367</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G84" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>285</v>
+        <v>368</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>84</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>287</v>
+        <v>371</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G85" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>288</v>
+        <v>372</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>85</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>374</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>290</v>
+        <v>375</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G86" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>86</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="G87" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>87</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>296</v>
+        <v>383</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G88" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>297</v>
+        <v>384</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>88</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>299</v>
+        <v>387</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>300</v>
+        <v>388</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>89</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G90" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>90</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>305</v>
+        <v>395</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="G91" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>91</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>308</v>
+        <v>399</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="G92" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>310</v>
+        <v>401</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="n">
-        <v>92</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>312</v>
+        <v>404</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="G93" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>313</v>
+        <v>405</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="n">
-        <v>93</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="G94" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>316</v>
+        <v>409</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="n">
-        <v>94</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>318</v>
+        <v>412</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G95" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>319</v>
+        <v>413</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="n">
-        <v>95</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>415</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G96" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="n">
-        <v>96</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G97" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="n">
-        <v>97</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G98" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>328</v>
+        <v>425</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="n">
-        <v>98</v>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>331</v>
+        <v>429</v>
       </c>
       <c r="G99" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>332</v>
+        <v>430</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>99</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G100" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>336</v>
+        <v>435</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>337</v>
-      </c>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4132,7 +4511,7 @@
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4143,106 +4522,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>339</v>
+        <v>438</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>340</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>440</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>442</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>443</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>444</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="0" t="s">
+        <v>445</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
+      <c r="A7" s="0" t="s">
+        <v>446</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
+      <c r="A8" s="0" t="s">
+        <v>447</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
+      <c r="A9" s="0" t="s">
+        <v>448</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>341</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="A10" s="0" t="s">
+        <v>449</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>331</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4342,85 +4721,85 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>338</v>
+      <c r="A1" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
-        <v>1</v>
+      <c r="A2" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
-        <v>2</v>
+      <c r="A3" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>4</v>
+      <c r="A5" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>454</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>270</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>6</v>
+      <c r="A7" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>7</v>
+      <c r="A8" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4815,7 @@
       <c r="B13" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
@@ -4659,6 +5038,2009 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D105"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D102" activeCellId="0" sqref="D102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="22" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D102" s="8"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D105" s="8"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A109"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="62.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="9" t="s">
+        <v>429</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
